--- a/fastqFiles/fastq_10.19.20.xlsx
+++ b/fastqFiles/fastq_10.19.20.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,6 +1074,9 @@
       <c r="L20" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1143,6 +1146,9 @@
       </c>
       <c r="L22" s="0" t="s">
         <v>40</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
